--- a/scripts/path_to_your_excel_file.xlsx
+++ b/scripts/path_to_your_excel_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -28,46 +28,52 @@
     <t xml:space="preserve">Prompt</t>
   </si>
   <si>
-    <t xml:space="preserve">Holistic Fitness </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emphasizing overall well-being, combining physical, mental, and social health. Activities like Pilates, yoga, and tai chi are increasingly popular as they cater to both the mind and body </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength Training at Home </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The trend of home-based strength training continues to grow, with people investing in heavier dumbbells (7.5kg-10kg) and following online workout communities​https://womensfitness.co.uk/fitness/2024-fitness-trends/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longevity and Functional Fitness </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercises aimed at maintaining quality of life, focusing on heart health and muscle mass. This includes moderate activities like brisk walking and more intensive workouts like resistance training </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable Fitness </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realistic workout and diet plans are gaining attention, promoting long-term adherence and habit formation over extreme routines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Workouts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online fitness classes remain popular due to their convenience. These include HIIT, yoga, and other accessible formats </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pickleball and Padel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">These inclusive and fast-growing sports have seen a surge in participation, with many enjoying their social and physical benefits​ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor Climbing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">With climbing's rising popularity, especially post-Olympics, more people are exploring indoor climbing and bouldering for both physical and mental challenges </t>
+    <t xml:space="preserve">Only spiky animal in the UK, known for hibernation and active in summer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation, hibernation habits, garden-friendly habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest breeding mammals in the UK, found on coasts and rocky shores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breeding grounds, seal watching spots, threats to populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fearless and intelligent predator, the largest wild cat in the UK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation efforts, population decline, rewilding initiatives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small rodent feeding on seeds and fruits, often preyed on by foxes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role in UK ecosystems, interactions with predators.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second-largest whale species, occasionally seen on UK coasts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whale spotting locations, impact of oceanic changes on populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small owl active during the day, preys on small mammals and insects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavioral studies, conservation status, unique feeding habits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptable predator found in urban and rural areas, known for cunning behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban adaptation, diet, wildlife management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nocturnal animal, known for living in setts and controversial TB debates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setts (dens), TB controversies, nocturnal behavior.</t>
   </si>
 </sst>
 </file>
@@ -105,6 +111,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -157,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,18 +179,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -375,16 +370,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,66 +390,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="46.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="69.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://womensfitness.co.uk/fitness/2024-fitness-trends/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/scripts/path_to_your_excel_file.xlsx
+++ b/scripts/path_to_your_excel_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -28,52 +28,148 @@
     <t xml:space="preserve">Prompt</t>
   </si>
   <si>
-    <t xml:space="preserve">Only spiky animal in the UK, known for hibernation and active in summer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation, hibernation habits, garden-friendly habitats.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest breeding mammals in the UK, found on coasts and rocky shores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breeding grounds, seal watching spots, threats to populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fearless and intelligent predator, the largest wild cat in the UK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation efforts, population decline, rewilding initiatives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small rodent feeding on seeds and fruits, often preyed on by foxes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role in UK ecosystems, interactions with predators.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second-largest whale species, occasionally seen on UK coasts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whale spotting locations, impact of oceanic changes on populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small owl active during the day, preys on small mammals and insects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behavioral studies, conservation status, unique feeding habits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptable predator found in urban and rural areas, known for cunning behavior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban adaptation, diet, wildlife management.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nocturnal animal, known for living in setts and controversial TB debates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setts (dens), TB controversies, nocturnal behavior.</t>
+    <t xml:space="preserve">Atlantic Cod: Overfishing and climate change are threatening cod populations, making it harder for this species to recover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic Cod: "Explore the ongoing issue of overfishing and climate change affecting Atlantic cod populations. What sustainable fishing practices can be implemented to help restore cod stocks? Discuss the role of marine protected areas, stricter fishing quotas, and ecosystem-based management solutions."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haddock: Habitat degradation and bycatch in fishing nets are key challenges affecting haddock sustainability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haddock: "Discuss the impacts of habitat degradation and bycatch on haddock populations. What steps can be taken to protect haddock through better fishing technology, eco-friendly practices, and the establishment of no-catch zones?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackerel: Disputes over fishing quotas and warming seas are impacting mackerel stock levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackerel: "Examine how disputes over fishing quotas and rising sea temperatures are affecting mackerel stocks. What international agreements and conservation strategies can help stabilize the mackerel population while ensuring sustainable fishing?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaice: Bottom trawling destroys seafloor habitats crucial for plaice survival.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaice: "Address the challenges of bottom trawling and its effect on plaice habitats. What alternative fishing methods can be introduced to protect the seafloor and sustain plaice populations?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small-Spotted Catshark: Accidental bycatch during commercial fishing poses a threat to these sharks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small-Spotted Catshark: "Small-spotted catsharks face significant threats from bycatch. Explore how technologies like escape panels and sustainable fishing practices can reduce bycatch and protect shark populations."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Sea Bream: Coastal development and pollution are disrupting spawning grounds for this species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Sea Bream: "Discuss how coastal development and pollution are disrupting the spawning grounds of black sea bream. What restoration projects and regulations can be put in place to safeguard their breeding areas?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Gurnard: Ocean acidification and habitat loss are endangering red gurnard populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Gurnard: "Investigate how ocean acidification and habitat loss are threatening red gurnard populations. What measures can be taken to combat acidification and preserve the fish's natural habitats?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basking Shark: Entanglement in fishing gear and ship collisions pose significant risks to basking sharks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basking Shark: "Basking sharks are endangered due to entanglement in fishing gear and ship collisions. Explore strategies like better maritime traffic management and the development of safer fishing gear to protect these gentle giants."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Shark: Overfishing for fins and meat is a leading issue for blue shark populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Shark: "Blue sharks are at risk from overfishing, particularly for fins and meat. How can global fisheries and conservation groups collaborate to create stronger regulations and conservation initiatives for blue sharks?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Shark: Habitat destruction has led to the near extinction of the angel shark in UK waters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Shark: "With angel sharks nearly extinct in UK waters, what conservation measures and fishing industry regulations are necessary to restore populations? Discuss marine protected areas and other restoration strategies."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Skate: Overfishing has critically endangered this once-abundant species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Skate: "Common skates have been critically endangered due to overfishing. What recovery plans and no-take zones could be implemented to help revive the population of this iconic ray species?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harbour Porpoise: High levels of underwater noise and accidental entanglement in fishing nets are major threats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harbour Porpoise: "Harbour porpoises face significant threats from entanglement in fishing nets and underwater noise. How can fishing practices be adapted to prevent bycatch, and what role does quieter shipping technology play in conserving porpoises?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey Seal: Plastic pollution and habitat disturbance impact seal health and breeding grounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey Seal: "Plastic pollution and habitat disturbance are major threats to grey seals. Explore solutions such as marine clean-up projects, reducing plastic waste, and habitat restoration efforts to protect seal populations."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Dolphin: Bycatch and chemical pollutants like PCBs are leading to declining populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Dolphin: "With declining common dolphin populations due to bycatch and pollutants, discuss how improved fishing gear, habitat protection, and international regulations can work together to conserve these marine mammals."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Lobster: Overharvesting and climate-induced habitat changes threaten lobster populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Lobster: "Common lobsters are being threatened by overharvesting and climate change. How can aquaculture, better fisheries management, and the establishment of sustainable harvesting practices ensure a healthy lobster population?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edible Crab: Overfishing and invasive species are reducing their numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edible Crab: "The depletion of edible crabs due to overfishing and invasive species requires action. Explore how regulating fishing practices, monitoring invasive species, and supporting crab habitat restoration can help maintain healthy populations."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Cuttlefish: Changing ocean temperatures and trawling practices harm this intelligent species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Cuttlefish: "Common cuttlefish are affected by changing ocean temperatures and trawling. What research, policy changes, and alternative fishing methods can be used to safeguard this species?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel Jellyfish: Pollution and rising sea temperatures are contributing to more frequent blooms, affecting marine ecosystems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel Jellyfish: "With the increasing frequency of jellyfish blooms, find out how pollution and warmer seas contribute to this issue. What strategies can mitigate the negative impacts of jellyfish blooms on local ecosystems?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic Puffin: Declines in prey availability due to overfishing and warming seas are impacting puffin populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic Puffin: "Explore the decline of puffin populations due to prey shortages from overfishing and warming seas. How can fishing regulations and marine biodiversity conservation efforts restore puffin numbers?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-Snouted Seahorse: Habitat destruction from coastal development and pollution threatens this seahorse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-Snouted Seahorse: "Short-snouted seahorses are under threat from coastal development and pollution. What coastal habitat restoration and marine conservation initiatives can protect seahorse populations?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink Sea Fan: Bottom trawling and climate change are damaging coral reefs hosting pink sea fans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink Sea Fan: "The destruction of pink sea fan habitats due to trawling and climate change is putting this coral species at risk. Discuss the importance of marine protected areas and sustainable fishing practices in protecting coral ecosystems."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allis Shad Fish: River barriers and water pollution are preventing this migratory fish from reproducing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allis Shad Fish: "The decline of allis shad fish populations is due to river barriers and pollution. Explore potential solutions like fish passage improvements, river restoration projects, and pollution reduction measures."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendace Fish: Habitat loss due to climate change has made this freshwater species critically endangered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendace Fish: "Vendace fish are critically endangered due to habitat loss. How can freshwater conservation efforts, such as habitat restoration and water quality management, help recover vendace populations?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Lizard: Coastal habitat destruction and invasive species are driving this lizard towards extinction​https://blog.padi.com/marine-species-to-encounter-around-the-uk-coast/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Lizard: "The coastal habitat of the sand lizard is under threat from coastal development and invasive species. What habitat management practices and species monitoring programs can help conserve this species?"</t>
   </si>
 </sst>
 </file>
@@ -164,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +275,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -370,10 +470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,110 +490,202 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="57.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
+    <row r="10" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1" display="https://blog.padi.com/marine-species-to-encounter-around-the-uk-coast/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/scripts/path_to_your_excel_file.xlsx
+++ b/scripts/path_to_your_excel_file.xlsx
@@ -20,144 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
   <si>
     <t xml:space="preserve">Prompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic Cod: Overfishing and climate change are threatening cod populations, making it harder for this species to recover.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic Cod: "Explore the ongoing issue of overfishing and climate change affecting Atlantic cod populations. What sustainable fishing practices can be implemented to help restore cod stocks? Discuss the role of marine protected areas, stricter fishing quotas, and ecosystem-based management solutions."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haddock: Habitat degradation and bycatch in fishing nets are key challenges affecting haddock sustainability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haddock: "Discuss the impacts of habitat degradation and bycatch on haddock populations. What steps can be taken to protect haddock through better fishing technology, eco-friendly practices, and the establishment of no-catch zones?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackerel: Disputes over fishing quotas and warming seas are impacting mackerel stock levels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackerel: "Examine how disputes over fishing quotas and rising sea temperatures are affecting mackerel stocks. What international agreements and conservation strategies can help stabilize the mackerel population while ensuring sustainable fishing?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaice: Bottom trawling destroys seafloor habitats crucial for plaice survival.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaice: "Address the challenges of bottom trawling and its effect on plaice habitats. What alternative fishing methods can be introduced to protect the seafloor and sustain plaice populations?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small-Spotted Catshark: Accidental bycatch during commercial fishing poses a threat to these sharks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small-Spotted Catshark: "Small-spotted catsharks face significant threats from bycatch. Explore how technologies like escape panels and sustainable fishing practices can reduce bycatch and protect shark populations."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Sea Bream: Coastal development and pollution are disrupting spawning grounds for this species.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Sea Bream: "Discuss how coastal development and pollution are disrupting the spawning grounds of black sea bream. What restoration projects and regulations can be put in place to safeguard their breeding areas?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Gurnard: Ocean acidification and habitat loss are endangering red gurnard populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Gurnard: "Investigate how ocean acidification and habitat loss are threatening red gurnard populations. What measures can be taken to combat acidification and preserve the fish's natural habitats?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basking Shark: Entanglement in fishing gear and ship collisions pose significant risks to basking sharks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basking Shark: "Basking sharks are endangered due to entanglement in fishing gear and ship collisions. Explore strategies like better maritime traffic management and the development of safer fishing gear to protect these gentle giants."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue Shark: Overfishing for fins and meat is a leading issue for blue shark populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue Shark: "Blue sharks are at risk from overfishing, particularly for fins and meat. How can global fisheries and conservation groups collaborate to create stronger regulations and conservation initiatives for blue sharks?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angel Shark: Habitat destruction has led to the near extinction of the angel shark in UK waters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angel Shark: "With angel sharks nearly extinct in UK waters, what conservation measures and fishing industry regulations are necessary to restore populations? Discuss marine protected areas and other restoration strategies."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Skate: Overfishing has critically endangered this once-abundant species.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Skate: "Common skates have been critically endangered due to overfishing. What recovery plans and no-take zones could be implemented to help revive the population of this iconic ray species?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harbour Porpoise: High levels of underwater noise and accidental entanglement in fishing nets are major threats.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harbour Porpoise: "Harbour porpoises face significant threats from entanglement in fishing nets and underwater noise. How can fishing practices be adapted to prevent bycatch, and what role does quieter shipping technology play in conserving porpoises?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey Seal: Plastic pollution and habitat disturbance impact seal health and breeding grounds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey Seal: "Plastic pollution and habitat disturbance are major threats to grey seals. Explore solutions such as marine clean-up projects, reducing plastic waste, and habitat restoration efforts to protect seal populations."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Dolphin: Bycatch and chemical pollutants like PCBs are leading to declining populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Dolphin: "With declining common dolphin populations due to bycatch and pollutants, discuss how improved fishing gear, habitat protection, and international regulations can work together to conserve these marine mammals."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Lobster: Overharvesting and climate-induced habitat changes threaten lobster populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Lobster: "Common lobsters are being threatened by overharvesting and climate change. How can aquaculture, better fisheries management, and the establishment of sustainable harvesting practices ensure a healthy lobster population?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edible Crab: Overfishing and invasive species are reducing their numbers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edible Crab: "The depletion of edible crabs due to overfishing and invasive species requires action. Explore how regulating fishing practices, monitoring invasive species, and supporting crab habitat restoration can help maintain healthy populations."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Cuttlefish: Changing ocean temperatures and trawling practices harm this intelligent species.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Cuttlefish: "Common cuttlefish are affected by changing ocean temperatures and trawling. What research, policy changes, and alternative fishing methods can be used to safeguard this species?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel Jellyfish: Pollution and rising sea temperatures are contributing to more frequent blooms, affecting marine ecosystems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel Jellyfish: "With the increasing frequency of jellyfish blooms, find out how pollution and warmer seas contribute to this issue. What strategies can mitigate the negative impacts of jellyfish blooms on local ecosystems?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic Puffin: Declines in prey availability due to overfishing and warming seas are impacting puffin populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic Puffin: "Explore the decline of puffin populations due to prey shortages from overfishing and warming seas. How can fishing regulations and marine biodiversity conservation efforts restore puffin numbers?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short-Snouted Seahorse: Habitat destruction from coastal development and pollution threatens this seahorse.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short-Snouted Seahorse: "Short-snouted seahorses are under threat from coastal development and pollution. What coastal habitat restoration and marine conservation initiatives can protect seahorse populations?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pink Sea Fan: Bottom trawling and climate change are damaging coral reefs hosting pink sea fans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pink Sea Fan: "The destruction of pink sea fan habitats due to trawling and climate change is putting this coral species at risk. Discuss the importance of marine protected areas and sustainable fishing practices in protecting coral ecosystems."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allis Shad Fish: River barriers and water pollution are preventing this migratory fish from reproducing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allis Shad Fish: "The decline of allis shad fish populations is due to river barriers and pollution. Explore potential solutions like fish passage improvements, river restoration projects, and pollution reduction measures."</t>
   </si>
   <si>
     <t xml:space="preserve">Vendace Fish: Habitat loss due to climate change has made this freshwater species critically endangered.</t>
@@ -277,7 +145,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -472,8 +340,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="45.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -506,185 +374,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="57.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1" display="https://blog.padi.com/marine-species-to-encounter-around-the-uk-coast/"/>
+    <hyperlink ref="A3" r:id="rId1" display="Sand Lizard: Coastal habitat destruction and invasive species are driving this lizard towards extinction​https://blog.padi.com/marine-species-to-encounter-around-the-uk-coast/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/scripts/path_to_your_excel_file.xlsx
+++ b/scripts/path_to_your_excel_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -28,16 +28,152 @@
     <t xml:space="preserve">Prompt</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendace Fish: Habitat loss due to climate change has made this freshwater species critically endangered.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendace Fish: "Vendace fish are critically endangered due to habitat loss. How can freshwater conservation efforts, such as habitat restoration and water quality management, help recover vendace populations?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand Lizard: Coastal habitat destruction and invasive species are driving this lizard towards extinction​https://blog.padi.com/marine-species-to-encounter-around-the-uk-coast/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand Lizard: "The coastal habitat of the sand lizard is under threat from coastal development and invasive species. What habitat management practices and species monitoring programs can help conserve this species?"</t>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: Animal Welfare Act 2006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fundamental law protecting the welfare of all domestic animals. It requires owners to meet animals' basic needs for a suitable environment, diet, companionship, and medical care.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+Dangerous Dogs Act 1991
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulates the ownership of specific dog breeds considered dangerous and imposes penalties for attacks or threats to public safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+Breeding and Sale of Dogs (Welfare) Act 1999
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires a license for breeders producing more than five litters per year and imposes welfare standards on the sale of puppies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+The Microchipping of Dogs (England) Regulations 2015
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandates microchipping of all dogs over 8 weeks old, ensuring lost or stolen dogs can be identified and returned to their owners.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+Pet Animals Act 1951
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governs the sale of animals as pets, requiring pet shops to obtain a license and adhere to welfare standards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+Control of Dogs Order 1992
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires all dogs in public places to wear a collar with the owner's name and address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+Animal Boarding Establishments Act 1963
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulates kennels and catteries to ensure adequate welfare standards for boarded animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+Protection of Animals Act 1911 (repealed and replaced by the Animal Welfare Act 2006)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originally prohibited cruelty to animals and was a precursor to modern welfare laws.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare: 
+Riding Establishments Act 1964 and 1970
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulates businesses involved in hiring out horses or providing riding lessons.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In UK Primary Laws on Pet Animal Welfare:  
+Zoo Licensing Act 1981
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governs the operation of zoos to ensure animal welfare and conservation measures.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Pet Travel and Import Regulations: The Pet Travel Scheme (PETS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows pets to travel between the UK and certain countries without quarantine if they meet microchipping, vaccination, and documentation requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Pet Travel and Import Regulations: The Rabies (Importation of Dogs, Cats, and Other Mammals) Order 1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets strict measures to prevent rabies in imported pets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Pet Travel and Import Regulations: The Welfare of Animals (Transport) (England) Order 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulates the transportation of animals, ensuring humane and safe conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Pet Travel and Import Regulations: Trade in Animals and Related Products Regulations 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets welfare standards for importing and exporting animals within and outside the EU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Licensing and Breeding Laws: The Animal Welfare (Licensing of Activities Involving Animals) (England) Regulations 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modernizes licensing for activities like breeding, pet sales, and animal exhibitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Licensing and Breeding Laws: Equine Identification (England) Regulations 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires all horses to have identification passports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Licensing and Breeding Laws: Dogs (Protection of Livestock) Act 1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes dog owners responsible for ensuring their pets do not harm livestock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in UK Licensing and Breeding Laws: The Wildlife and Countryside Act 1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prohibits the keeping and sale of certain wild animals as pets without proper licensing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in uk Other Relevant Laws: Hunting Act 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prohibits hunting of wild mammals with dogs in England and Wales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in uk Other Relevant Laws: Animal Health Act 1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulates animal diseases and outbreaks affecting domestic animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in uk Other Relevant Laws: Veterinary Surgeons Act 1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures that only qualified professionals provide medical care for animals.</t>
   </si>
 </sst>
 </file>
@@ -128,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,8 +281,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -338,10 +482,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -374,98 +518,252 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
+    <row r="4" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="45.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="Sand Lizard: Coastal habitat destruction and invasive species are driving this lizard towards extinction​https://blog.padi.com/marine-species-to-encounter-around-the-uk-coast/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
